--- a/ME study plan.xlsx
+++ b/ME study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="25360" windowHeight="14040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Course</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Linear Algebra with Application to Engineering Computation</t>
-  </si>
-  <si>
-    <t>EE261</t>
-  </si>
-  <si>
-    <t>The Fourier Transform and Its Application</t>
   </si>
   <si>
     <t>ME310A</t>
@@ -131,19 +125,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CS193P</t>
-  </si>
-  <si>
-    <t>iPhone and iPad Application Programming</t>
-  </si>
-  <si>
-    <t>CS 144</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Networking</t>
-  </si>
-  <si>
     <t>Finished</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS221</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence: Principles and Techniques</t>
+  </si>
+  <si>
+    <t>/39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATS202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Mining and Analysis</t>
+  </si>
+  <si>
+    <t>ME304</t>
+  </si>
+  <si>
+    <t>The Designer's Voice</t>
+  </si>
+  <si>
+    <t>Practical Training</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME299A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +219,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT-Identity"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,7 +310,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -301,8 +322,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -313,40 +354,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="31">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -675,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -687,10 +766,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -698,8 +777,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="105" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -712,19 +791,19 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <f>SUM(C3:C4)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="53" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+    <row r="4" spans="1:8" ht="40" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -732,21 +811,21 @@
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1"/>
     <row r="6" spans="1:8" ht="105" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <f>SUM(C3,C4,C10,C6:C8,C11,C13:C14)</f>
@@ -755,54 +834,54 @@
     </row>
     <row r="7" spans="1:8" ht="105" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="105" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1"/>
     <row r="10" spans="1:8" ht="53" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="66" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -812,24 +891,24 @@
     </row>
     <row r="12" spans="1:8" ht="16" thickBot="1"/>
     <row r="13" spans="1:8" ht="53" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="27" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -839,10 +918,10 @@
     </row>
     <row r="15" spans="1:8" ht="40" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -850,91 +929,118 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="53" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
+    <row r="16" spans="1:8" ht="37" thickBot="1">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="66" thickBot="1">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="85" thickBot="1">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
+      <c r="C17" s="14">
+        <v>4</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="16" thickBot="1"/>
-    <row r="19" spans="1:6" ht="53" thickBot="1">
-      <c r="A19" s="6" t="s">
+    <row r="18" spans="1:6" ht="79" thickBot="1">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="79" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" thickBot="1">
+      <c r="E19">
+        <f>C25-SUM(C20:C23)</f>
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="53" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="53" thickBot="1">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
         <v>3</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <f>SUM(C3,C4,C6:C8,C10:C11,C13:C17,C19:C22)</f>
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
       <c r="F24">
-        <f>SUM(C19:C21,C3,C6:C8,C10,C13:C15)</f>
-        <v>30</v>
+        <f>SUM(C20:C21,C3,C6:C8,C10,C13:C15)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C3,C4,C6:C8,C10:C11,C13:C17,C20:C23)</f>
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
